--- a/public/Audit.xlsx
+++ b/public/Audit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fernando\Documents\WD\email-node\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2C3C20-04E4-4BEF-9C0A-587A7137B447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DF2C3F-5D29-45BB-A6AF-F31BFC707BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="1305" windowWidth="16200" windowHeight="9270" xr2:uid="{6EDB370D-84F7-4B74-81C0-A51E4EDB49E3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6EDB370D-84F7-4B74-81C0-A51E4EDB49E3}"/>
   </bookViews>
   <sheets>
     <sheet name="CustomerList" sheetId="1" r:id="rId1"/>
@@ -222,9 +222,6 @@
     <t>SolFecha</t>
   </si>
   <si>
-    <t>Oscar Castro</t>
-  </si>
-  <si>
     <t>Ketal Supermercados</t>
   </si>
   <si>
@@ -240,7 +237,10 @@
     <t>KETAL20220211selfdeclaration.pdf</t>
   </si>
   <si>
-    <t>ocastro@ketal.com.bo;rcondori@ketal.com.bo</t>
+    <t>Jose Luis Murillo</t>
+  </si>
+  <si>
+    <t>jmurillo@ketal.com.bo; rcondori@ketal.com.bo</t>
   </si>
 </sst>
 </file>
@@ -331,7 +331,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,7 +649,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,37 +1037,38 @@
         <v>1</v>
       </c>
       <c r="E8" s="6">
-        <v>44603</v>
+        <v>44607</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="J8" s="6">
         <v>44666</v>
       </c>
       <c r="L8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M8" t="s">
         <v>68</v>
       </c>
       <c r="N8" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" t="s">
         <v>65</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>66</v>
-      </c>
-      <c r="P8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E9" s="10"/>
       <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">

--- a/public/Audit.xlsx
+++ b/public/Audit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fernando\Documents\WD\email-node\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DF2C3F-5D29-45BB-A6AF-F31BFC707BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C107702-F613-4D98-BF28-6C86184BD27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6EDB370D-84F7-4B74-81C0-A51E4EDB49E3}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="16200" windowHeight="9270" xr2:uid="{6EDB370D-84F7-4B74-81C0-A51E4EDB49E3}"/>
   </bookViews>
   <sheets>
     <sheet name="CustomerList" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="81">
   <si>
     <t>Nr</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>FechaTxt</t>
-  </si>
-  <si>
     <t>Contacto</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>6286371</t>
   </si>
   <si>
-    <t>28 de Mayo</t>
-  </si>
-  <si>
     <t>Ronald Justiniano</t>
   </si>
   <si>
@@ -111,9 +105,6 @@
     <t>6242898</t>
   </si>
   <si>
-    <t>30 de Abril</t>
-  </si>
-  <si>
     <t>Luis Acosta</t>
   </si>
   <si>
@@ -132,9 +123,6 @@
     <t>6173394</t>
   </si>
   <si>
-    <t>20 de Abril</t>
-  </si>
-  <si>
     <t>Mauricio Trujillo</t>
   </si>
   <si>
@@ -186,9 +174,6 @@
     <t>YPFBTransporteS.A.20210705selfdeclaration.pdf</t>
   </si>
   <si>
-    <t>30 de Agosto</t>
-  </si>
-  <si>
     <t>YPFB Andina S.A.</t>
   </si>
   <si>
@@ -210,9 +195,6 @@
     <t>daniel.pfeiffer@ypfb-andina.com.bo; sandra.ocampo@ypfb-andina.com.bo</t>
   </si>
   <si>
-    <t>edith.vera@ypfbtransporte.com.bo; juanjose.soria@ypfbtransporte.com.bo</t>
-  </si>
-  <si>
     <t>EMail</t>
   </si>
   <si>
@@ -241,6 +223,60 @@
   </si>
   <si>
     <t>jmurillo@ketal.com.bo; rcondori@ketal.com.bo</t>
+  </si>
+  <si>
+    <t>hugo.alcazar@ypfbtransporte.com.bo; edith.vera@ypfbtransporte.com.bo; juanjose.soria@ypfbtransporte.com.bo</t>
+  </si>
+  <si>
+    <t>Toninho Cerezo</t>
+  </si>
+  <si>
+    <t>toninho.cerezo@ypfbtransporte.com.bo; hugo.alcazar@ypfbtransporte.com.bo; juanjose.soria@ypfbtransporte.com.bo</t>
+  </si>
+  <si>
+    <t>YPFBRefinacionSA20220401REQPLAN.pdf</t>
+  </si>
+  <si>
+    <t>YPFBRefinacionSA20220401REQLAW.xml</t>
+  </si>
+  <si>
+    <t>INTAGROSA20220401REQPLAN.pdf</t>
+  </si>
+  <si>
+    <t>INTAGROSA20220401REQLAW.xml</t>
+  </si>
+  <si>
+    <t>Tito Suarez</t>
+  </si>
+  <si>
+    <t>titosuarez@intagro.com.bo; titosuarezcatala@gmail.com; josueapaze@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integral Agropecuaria S.A. </t>
+  </si>
+  <si>
+    <t>Semillera Y Estacio Experimental Agricola S.R.L.</t>
+  </si>
+  <si>
+    <t>Monica Menacho</t>
+  </si>
+  <si>
+    <t>mmenacho@landicorp.com.bo; sreguerin@landicorp.com.bo</t>
+  </si>
+  <si>
+    <t>SEMEXASA20220401REQPLAN.pdf</t>
+  </si>
+  <si>
+    <t>SEMEXASA20220401REQLAW.xml</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>AUDIT</t>
+  </si>
+  <si>
+    <t>EWA</t>
   </si>
 </sst>
 </file>
@@ -252,7 +288,7 @@
     <numFmt numFmtId="165" formatCode="dd&quot; de &quot;mmmm"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,22 +299,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -310,28 +330,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,433 +661,603 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3831D948-4AA7-4579-BEC0-1FE08B46DDE9}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" style="6"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="56" customWidth="1"/>
-    <col min="14" max="14" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="44" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="56" style="5" customWidth="1"/>
+    <col min="14" max="14" width="38.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="44" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" s="6">
         <v>44293</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="5">
         <v>0</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="J2" s="6">
         <v>44344</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="O2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="E3" s="6">
         <v>44267</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="5">
         <v>0</v>
       </c>
       <c r="G3" s="6">
         <v>44293</v>
       </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>24</v>
+      <c r="H3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="J3" s="6">
         <v>44316</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="E4" s="6">
         <v>44256</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <v>0</v>
       </c>
       <c r="G4" s="6">
         <v>44293</v>
       </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>31</v>
+      <c r="H4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="J4" s="6">
         <v>44306</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="E5" s="6">
         <v>44256</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <v>0</v>
       </c>
       <c r="G5" s="6">
         <v>44293</v>
       </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>38</v>
+      <c r="H5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="J5" s="6">
         <v>44306</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="K5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" t="s">
-        <v>42</v>
-      </c>
-      <c r="P5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q5">
+      <c r="Q5" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="E6" s="6">
         <v>44382</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <v>0</v>
       </c>
       <c r="G6" s="6">
         <v>44438</v>
       </c>
-      <c r="H6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>45</v>
+      <c r="H6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="J6" s="6">
         <v>44438</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" t="s">
-        <v>58</v>
-      </c>
-      <c r="N6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P6" t="s">
-        <v>49</v>
+      <c r="K6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="E7" s="6">
         <v>44386</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <v>0</v>
       </c>
       <c r="G7" s="6">
         <v>44438</v>
       </c>
-      <c r="H7" t="s">
-        <v>51</v>
+      <c r="H7" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J7" s="6">
         <v>44438</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="L7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" t="s">
-        <v>57</v>
-      </c>
-      <c r="N7" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P7" t="s">
-        <v>56</v>
+      <c r="P7" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
         <v>1</v>
       </c>
       <c r="E8" s="6">
         <v>44607</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>62</v>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>44655</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J8" s="6">
         <v>44666</v>
       </c>
-      <c r="L8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M8" t="s">
-        <v>68</v>
-      </c>
-      <c r="N8" t="s">
-        <v>64</v>
-      </c>
-      <c r="O8" t="s">
-        <v>65</v>
-      </c>
-      <c r="P8" t="s">
-        <v>66</v>
+      <c r="K8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
+        <v>44623</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="6">
+        <v>44623</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G10" s="10"/>
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
+        <v>44652</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="6">
+        <v>44711</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>44652</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="7">
+        <v>6231578</v>
+      </c>
+      <c r="J11" s="6">
+        <v>44711</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
+        <v>44652</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="7">
+        <v>6232846</v>
+      </c>
+      <c r="J12" s="6">
+        <v>44711</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
